--- a/REGULAR/OCAMPO, EDRALYN BAES.xlsx
+++ b/REGULAR/OCAMPO, EDRALYN BAES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\HRMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="343">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1056,6 +1056,12 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>BDAY 3/21/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1788,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K494" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K495" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2111,12 +2117,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K494"/>
+  <dimension ref="A2:K495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A470" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A473" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E478" sqref="E478"/>
+      <selection pane="bottomLeft" activeCell="K487" sqref="K487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2285,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>164.19799999999998</v>
+        <v>164.44799999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2289,7 +2295,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>211.08299999999997</v>
+        <v>212.33299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12773,24 +12779,36 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="40"/>
-      <c r="B486" s="20"/>
-      <c r="C486" s="13"/>
-      <c r="D486" s="39"/>
+      <c r="A486" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B486" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C486" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D486" s="39">
+        <v>1</v>
+      </c>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G486" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H486" s="39"/>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
-      <c r="K486" s="20"/>
+      <c r="K486" s="52">
+        <v>45000</v>
+      </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
-      <c r="B487" s="20"/>
+      <c r="B487" s="20" t="s">
+        <v>340</v>
+      </c>
       <c r="C487" s="13"/>
       <c r="D487" s="39"/>
       <c r="E487" s="9"/>
@@ -12802,10 +12820,14 @@
       <c r="H487" s="39"/>
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
-      <c r="K487" s="20"/>
+      <c r="K487" s="20" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" s="40"/>
+      <c r="A488" s="40">
+        <v>45017</v>
+      </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
       <c r="D488" s="39"/>
@@ -12901,20 +12923,36 @@
       <c r="K493" s="20"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="41"/>
-      <c r="B494" s="15"/>
-      <c r="C494" s="42"/>
-      <c r="D494" s="43"/>
-      <c r="E494" s="49"/>
-      <c r="F494" s="15"/>
-      <c r="G494" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H494" s="43"/>
-      <c r="I494" s="49"/>
-      <c r="J494" s="12"/>
-      <c r="K494" s="15"/>
+      <c r="A494" s="40"/>
+      <c r="B494" s="20"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="39"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="20"/>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H494" s="39"/>
+      <c r="I494" s="9"/>
+      <c r="J494" s="11"/>
+      <c r="K494" s="20"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" s="41"/>
+      <c r="B495" s="15"/>
+      <c r="C495" s="42"/>
+      <c r="D495" s="43"/>
+      <c r="E495" s="49"/>
+      <c r="F495" s="15"/>
+      <c r="G495" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H495" s="43"/>
+      <c r="I495" s="49"/>
+      <c r="J495" s="12"/>
+      <c r="K495" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OCAMPO, EDRALYN BAES.xlsx
+++ b/REGULAR/OCAMPO, EDRALYN BAES.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="347">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1062,6 +1062,18 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>5/15-19/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1476,6 +1488,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,7 +1803,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K495" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K496" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2117,12 +2132,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K495"/>
+  <dimension ref="A2:K496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A473" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K487" sqref="K487"/>
+      <selection pane="bottomLeft" activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,64 +2159,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2227,18 +2242,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2285,7 +2300,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>164.44799999999998</v>
+        <v>161.94799999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2295,7 +2310,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>212.33299999999997</v>
+        <v>213.83299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12829,13 +12844,15 @@
         <v>45017</v>
       </c>
       <c r="B488" s="20"/>
-      <c r="C488" s="13"/>
+      <c r="C488" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D488" s="39"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G488" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H488" s="39"/>
       <c r="I488" s="9"/>
@@ -12843,24 +12860,36 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="40"/>
-      <c r="B489" s="20"/>
-      <c r="C489" s="13"/>
-      <c r="D489" s="39"/>
+      <c r="A489" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B489" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C489" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D489" s="39">
+        <v>5</v>
+      </c>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G489" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H489" s="39"/>
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
-      <c r="K489" s="20"/>
+      <c r="K489" s="20" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
-      <c r="B490" s="20"/>
+      <c r="B490" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
       <c r="E490" s="9"/>
@@ -12869,10 +12898,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H490" s="39"/>
+      <c r="H490" s="39">
+        <v>1</v>
+      </c>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="20"/>
+      <c r="K490" s="52">
+        <v>45051</v>
+      </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
@@ -12939,20 +12972,36 @@
       <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="41"/>
-      <c r="B495" s="15"/>
-      <c r="C495" s="42"/>
-      <c r="D495" s="43"/>
-      <c r="E495" s="49"/>
-      <c r="F495" s="15"/>
-      <c r="G495" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H495" s="43"/>
-      <c r="I495" s="49"/>
-      <c r="J495" s="12"/>
-      <c r="K495" s="15"/>
+      <c r="A495" s="40"/>
+      <c r="B495" s="20"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="39"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="20"/>
+      <c r="G495" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H495" s="39"/>
+      <c r="I495" s="9"/>
+      <c r="J495" s="11"/>
+      <c r="K495" s="20"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" s="41"/>
+      <c r="B496" s="15"/>
+      <c r="C496" s="42"/>
+      <c r="D496" s="43"/>
+      <c r="E496" s="49"/>
+      <c r="F496" s="15"/>
+      <c r="G496" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H496" s="43"/>
+      <c r="I496" s="49"/>
+      <c r="J496" s="12"/>
+      <c r="K496" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12999,7 +13048,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13017,17 +13066,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -13089,6 +13138,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>343</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13102,14 +13154,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>375.78099999999995</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/OCAMPO, EDRALYN BAES.xlsx
+++ b/REGULAR/OCAMPO, EDRALYN BAES.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="347">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2137,7 +2137,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A473" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B491" sqref="B491"/>
+      <selection pane="bottomLeft" activeCell="J494" sqref="J494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2310,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>213.83299999999997</v>
+        <v>212.83299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12909,7 +12909,9 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
-      <c r="B491" s="20"/>
+      <c r="B491" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C491" s="13"/>
       <c r="D491" s="39"/>
       <c r="E491" s="9"/>
@@ -12918,10 +12920,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H491" s="39"/>
+      <c r="H491" s="39">
+        <v>1</v>
+      </c>
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
-      <c r="K491" s="20"/>
+      <c r="K491" s="52">
+        <v>45075</v>
+      </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
@@ -13164,7 +13170,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>375.78099999999995</v>
+        <v>374.78099999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OCAMPO, EDRALYN BAES.xlsx
+++ b/REGULAR/OCAMPO, EDRALYN BAES.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="349">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1074,6 +1074,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>6/5-7/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2135,9 +2141,9 @@
   <dimension ref="A2:K496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A473" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A482" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="J494" sqref="J494"/>
+      <selection pane="bottomLeft" activeCell="K496" sqref="K496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2316,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>212.83299999999997</v>
+        <v>206.83299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12930,8 +12936,12 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="40"/>
-      <c r="B492" s="20"/>
+      <c r="A492" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B492" s="20" t="s">
+        <v>348</v>
+      </c>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
       <c r="E492" s="9"/>
@@ -12940,14 +12950,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H492" s="39"/>
+      <c r="H492" s="39">
+        <v>3</v>
+      </c>
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
-      <c r="K492" s="20"/>
+      <c r="K492" s="20" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
-      <c r="B493" s="20"/>
+      <c r="B493" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C493" s="13"/>
       <c r="D493" s="39"/>
       <c r="E493" s="9"/>
@@ -12956,14 +12972,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H493" s="39"/>
+      <c r="H493" s="39">
+        <v>1</v>
+      </c>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
-      <c r="K493" s="20"/>
+      <c r="K493" s="52">
+        <v>45086</v>
+      </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
-      <c r="B494" s="20"/>
+      <c r="B494" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
       <c r="E494" s="9"/>
@@ -12972,14 +12994,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H494" s="39"/>
+      <c r="H494" s="39">
+        <v>1</v>
+      </c>
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
-      <c r="K494" s="20"/>
+      <c r="K494" s="52">
+        <v>45091</v>
+      </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
-      <c r="B495" s="20"/>
+      <c r="B495" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C495" s="13"/>
       <c r="D495" s="39"/>
       <c r="E495" s="9"/>
@@ -12988,10 +13016,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H495" s="39"/>
+      <c r="H495" s="39">
+        <v>1</v>
+      </c>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
-      <c r="K495" s="20"/>
+      <c r="K495" s="52">
+        <v>45092</v>
+      </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="41"/>
@@ -13170,7 +13202,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>374.78099999999995</v>
+        <v>368.78099999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
